--- a/migforecasting/clustering/for paper/input c2c.xlsx
+++ b/migforecasting/clustering/for paper/input c2c.xlsx
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,502 +725,1252 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
-        <v>788.99999999999841</v>
+        <v>2815</v>
       </c>
       <c r="C7" s="1">
-        <v>19068.8688</v>
+        <v>20675.747319999999</v>
       </c>
       <c r="D7" s="1">
-        <v>1820.9999999999964</v>
+        <v>4044.4999999999973</v>
       </c>
       <c r="E7" s="1">
-        <v>79.999999999999787</v>
+        <v>387.99999999999983</v>
       </c>
       <c r="F7" s="1">
-        <v>57968.611199999868</v>
+        <v>509272.59583999997</v>
       </c>
       <c r="G7" s="1">
-        <v>35.799999999999997</v>
+        <v>29.82</v>
       </c>
       <c r="H7" s="1">
-        <v>12.999999999999892</v>
+        <v>53.999999999999659</v>
       </c>
       <c r="I7" s="1">
-        <v>1.9999999999999847</v>
+        <v>31.999999999999865</v>
       </c>
       <c r="J7" s="1">
-        <v>81.399999999999764</v>
+        <v>1231.9999999999993</v>
       </c>
       <c r="K7" s="1">
-        <v>32010.999999999935</v>
+        <v>47001.999999999993</v>
       </c>
       <c r="L7" s="1">
-        <v>1244.4599999999969</v>
+        <v>8969.9999999999982</v>
       </c>
       <c r="M7" s="1">
-        <v>838591.639199998</v>
+        <v>2998146.3123999988</v>
       </c>
       <c r="N7" s="1">
-        <v>9.9999999999999591</v>
+        <v>21.99999999999995</v>
       </c>
       <c r="O7" s="1">
-        <v>251.99999999999952</v>
+        <v>1535</v>
       </c>
       <c r="P7" s="1">
-        <v>750105.80711999815</v>
+        <v>4597855.1592400009</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>4126.9999999999991</v>
+        <v>2624.9999999999973</v>
       </c>
       <c r="C8" s="2">
-        <v>20441.322639999999</v>
+        <v>19000.342280000001</v>
       </c>
       <c r="D8" s="1">
-        <v>17070.69999999999</v>
+        <v>12773.499999999993</v>
       </c>
       <c r="E8" s="1">
-        <v>27.999999999999929</v>
+        <v>480.99999999999943</v>
       </c>
       <c r="F8" s="1">
-        <v>268457.68935999984</v>
+        <v>477102.61020999961</v>
       </c>
       <c r="G8" s="2">
-        <v>21.79</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="H8" s="1">
-        <v>73.999999999999488</v>
+        <v>83.999999999999417</v>
       </c>
       <c r="I8" s="1">
-        <v>69.999999999999687</v>
+        <v>66.999999999999702</v>
       </c>
       <c r="J8" s="1">
-        <v>202.59999999999971</v>
+        <v>586.09999999999911</v>
       </c>
       <c r="K8" s="1">
-        <v>314708.99999999988</v>
+        <v>13303.999999999976</v>
       </c>
       <c r="L8" s="1">
-        <v>18979.989999999991</v>
+        <v>31991.309999999979</v>
       </c>
       <c r="M8" s="1">
-        <v>3873762.5743999979</v>
+        <v>2339528.8654999975</v>
       </c>
       <c r="N8" s="1">
-        <v>28.999999999999932</v>
+        <v>40.999999999999879</v>
       </c>
       <c r="O8" s="1">
-        <v>1107.9999999999998</v>
+        <v>960.99999999999955</v>
       </c>
       <c r="P8" s="1">
-        <v>3584846.1060399981</v>
+        <v>507575.87836999819</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>1887.9999999999989</v>
+        <v>2241.9999999999986</v>
       </c>
       <c r="C9" s="1">
-        <v>18376.923200000001</v>
+        <v>18928.538</v>
       </c>
       <c r="D9" s="1">
-        <v>8486.1999999999953</v>
+        <v>5624.599999999994</v>
       </c>
       <c r="E9" s="1">
-        <v>234.99999999999972</v>
+        <v>253.99999999999974</v>
       </c>
       <c r="F9" s="1">
-        <v>341592.53969999967</v>
+        <v>305353.16715999978</v>
       </c>
       <c r="G9" s="1">
-        <v>26.3</v>
+        <v>28.41</v>
       </c>
       <c r="H9" s="1">
-        <v>155.99999999999895</v>
+        <v>54.999999999999609</v>
       </c>
       <c r="I9" s="1">
-        <v>56.999999999999723</v>
+        <v>34.999999999999837</v>
       </c>
       <c r="J9" s="1">
-        <v>389.39999999999952</v>
+        <v>982.89999999999884</v>
       </c>
       <c r="K9" s="1">
-        <v>182951.9999999998</v>
+        <v>22820.999999999982</v>
       </c>
       <c r="L9" s="1">
-        <v>19100.999999999978</v>
+        <v>13234.999999999989</v>
       </c>
       <c r="M9" s="1">
-        <v>2366184.0724999984</v>
+        <v>1244565.0463999989</v>
       </c>
       <c r="N9" s="1">
-        <v>24.999999999999932</v>
+        <v>24.999999999999929</v>
       </c>
       <c r="O9" s="1">
-        <v>790.99999999999943</v>
+        <v>693.99999999999932</v>
       </c>
       <c r="P9" s="1">
-        <v>322435.87408999965</v>
+        <v>3344506.7167999977</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1">
-        <v>20037.999999999996</v>
+        <v>1255.9999999999986</v>
       </c>
       <c r="C10" s="1">
-        <v>25152.816680000011</v>
+        <v>16376.46312</v>
       </c>
       <c r="D10" s="1">
-        <v>72911.599999999991</v>
+        <v>6331.8999999999915</v>
       </c>
       <c r="E10" s="1">
-        <v>2549.9999999999977</v>
+        <v>135.99999999999977</v>
       </c>
       <c r="F10" s="1">
-        <v>4713511.9352799999</v>
+        <v>158372.48895999984</v>
       </c>
       <c r="G10" s="1">
-        <v>29.9</v>
+        <v>25.4</v>
       </c>
       <c r="H10" s="1">
-        <v>195.99999999999872</v>
+        <v>45.999999999999659</v>
       </c>
       <c r="I10" s="1">
-        <v>248.99999999999895</v>
+        <v>8.9999999999999467</v>
       </c>
       <c r="J10" s="1">
-        <v>1123.1999999999985</v>
+        <v>169.29999999999961</v>
       </c>
       <c r="K10" s="1">
-        <v>1264806.9999999993</v>
+        <v>61603.99999999992</v>
       </c>
       <c r="L10" s="1">
-        <v>104307.92999999998</v>
+        <v>13867.999999999985</v>
       </c>
       <c r="M10" s="1">
-        <v>2214641.3434399972</v>
+        <v>611275.27679999929</v>
       </c>
       <c r="N10" s="1">
-        <v>34.999999999999915</v>
+        <v>31.99999999999989</v>
       </c>
       <c r="O10" s="1">
-        <v>6308.9999999999991</v>
+        <v>405.99999999999937</v>
       </c>
       <c r="P10" s="1">
-        <v>26988496.705479994</v>
+        <v>85781.077479999847</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
-        <v>8680.9999999999982</v>
+        <v>1293</v>
       </c>
       <c r="C11" s="1">
-        <v>19397.3076</v>
+        <v>16443.209169999991</v>
       </c>
       <c r="D11" s="1">
-        <v>32935.899999999994</v>
+        <v>4607.6999999999971</v>
       </c>
       <c r="E11" s="1">
-        <v>1673.9999999999982</v>
+        <v>119.99999999999987</v>
       </c>
       <c r="F11" s="1">
-        <v>1330729.4930399999</v>
+        <v>219599.7193099999</v>
       </c>
       <c r="G11" s="1">
-        <v>25.1</v>
+        <v>27.9</v>
       </c>
       <c r="H11" s="1">
-        <v>158.99999999999895</v>
+        <v>20.999999999999858</v>
       </c>
       <c r="I11" s="1">
-        <v>184.99999999999918</v>
+        <v>17.999999999999915</v>
       </c>
       <c r="J11" s="1">
-        <v>386.19999999999953</v>
+        <v>153.79999999999984</v>
       </c>
       <c r="K11" s="1">
-        <v>810919.99999999977</v>
+        <v>16620.999999999989</v>
       </c>
       <c r="L11" s="1">
-        <v>182696</v>
+        <v>11932.299999999996</v>
       </c>
       <c r="M11" s="1">
-        <v>5519372.8535999991</v>
+        <v>742537.84159999969</v>
       </c>
       <c r="N11" s="1">
-        <v>38.999999999999908</v>
+        <v>14.999999999999963</v>
       </c>
       <c r="O11" s="1">
-        <v>2499.9999999999995</v>
+        <v>440.99999999999977</v>
       </c>
       <c r="P11" s="1">
-        <v>3749387.5015199976</v>
+        <v>123348.75611999938</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1">
-        <v>2819.9999999999991</v>
+        <v>788.99999999999841</v>
       </c>
       <c r="C12" s="1">
-        <v>17545.93204</v>
+        <v>19068.8688</v>
       </c>
       <c r="D12" s="1">
-        <v>16399.19999999999</v>
+        <v>1820.9999999999964</v>
       </c>
       <c r="E12" s="1">
-        <v>346.9999999999996</v>
+        <v>79.999999999999787</v>
       </c>
       <c r="F12" s="1">
-        <v>573514.04293999996</v>
+        <v>57968.611199999868</v>
       </c>
       <c r="G12" s="1">
-        <v>28</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="H12" s="1">
-        <v>64.999999999999574</v>
+        <v>12.999999999999892</v>
       </c>
       <c r="I12" s="1">
-        <v>59.999999999999716</v>
+        <v>1.9999999999999847</v>
       </c>
       <c r="J12" s="1">
-        <v>382.49999999999949</v>
+        <v>81.399999999999764</v>
       </c>
       <c r="K12" s="1">
-        <v>39639.999999999935</v>
+        <v>32010.999999999935</v>
       </c>
       <c r="L12" s="1">
-        <v>9314.3999999999924</v>
+        <v>1244.4599999999969</v>
       </c>
       <c r="M12" s="1">
-        <v>3234408.7671999987</v>
+        <v>838591.639199998</v>
       </c>
       <c r="N12" s="1">
-        <v>17.99999999999995</v>
+        <v>9.9999999999999591</v>
       </c>
       <c r="O12" s="1">
-        <v>744.99999999999955</v>
+        <v>251.99999999999952</v>
       </c>
       <c r="P12" s="1">
-        <v>828015.21829999797</v>
+        <v>750105.80711999815</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>21239.000000000004</v>
+        <v>4126.9999999999991</v>
       </c>
       <c r="C13" s="1">
-        <v>23604.910929999998</v>
+        <v>20441.322639999999</v>
       </c>
       <c r="D13" s="1">
-        <v>64664.399999999987</v>
+        <v>17070.69999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>2076.9999999999995</v>
+        <v>27.999999999999929</v>
       </c>
       <c r="F13" s="1">
-        <v>4676977.1911800001</v>
+        <v>268457.68935999984</v>
       </c>
       <c r="G13" s="1">
-        <v>30.2</v>
+        <v>21.79</v>
       </c>
       <c r="H13" s="1">
-        <v>300.99999999999807</v>
+        <v>73.999999999999488</v>
       </c>
       <c r="I13" s="1">
-        <v>303.99999999999869</v>
+        <v>69.999999999999687</v>
       </c>
       <c r="J13" s="1">
-        <v>783.79999999999882</v>
+        <v>202.59999999999971</v>
       </c>
       <c r="K13" s="1">
-        <v>202571.00000000003</v>
+        <v>314708.99999999988</v>
       </c>
       <c r="L13" s="1">
-        <v>87368.909999999974</v>
+        <v>18979.989999999991</v>
       </c>
       <c r="M13" s="1">
-        <v>8408723.8795999978</v>
+        <v>3873762.5743999979</v>
       </c>
       <c r="N13" s="1">
-        <v>34.999999999999901</v>
+        <v>28.999999999999932</v>
       </c>
       <c r="O13" s="1">
-        <v>4502</v>
+        <v>1107.9999999999998</v>
       </c>
       <c r="P13" s="1">
-        <v>19397519.885310002</v>
+        <v>3584846.1060399981</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>15028.999999999996</v>
+        <v>1887.9999999999989</v>
       </c>
       <c r="C14" s="1">
-        <v>25869.387780000001</v>
+        <v>18376.923200000001</v>
       </c>
       <c r="D14" s="1">
-        <v>17235.499999999989</v>
+        <v>8486.1999999999953</v>
       </c>
       <c r="E14" s="1">
-        <v>1123.9999999999986</v>
+        <v>234.99999999999972</v>
       </c>
       <c r="F14" s="1">
-        <v>866008.93850999954</v>
+        <v>341592.53969999967</v>
       </c>
       <c r="G14" s="1">
-        <v>23.8</v>
+        <v>26.3</v>
       </c>
       <c r="H14" s="1">
-        <v>124.99999999999919</v>
+        <v>155.99999999999895</v>
       </c>
       <c r="I14" s="1">
-        <v>194.99999999999915</v>
+        <v>56.999999999999723</v>
       </c>
       <c r="J14" s="1">
-        <v>235.39999999999975</v>
+        <v>389.39999999999952</v>
       </c>
       <c r="K14" s="1">
-        <v>2168.999999999995</v>
+        <v>182951.9999999998</v>
       </c>
       <c r="L14" s="1">
-        <v>22439.059999999987</v>
+        <v>19100.999999999978</v>
       </c>
       <c r="M14" s="1">
-        <v>259751.15039999882</v>
+        <v>2366184.0724999984</v>
       </c>
       <c r="N14" s="1">
-        <v>11.999999999999948</v>
+        <v>24.999999999999932</v>
       </c>
       <c r="O14" s="1">
-        <v>3210.9999999999995</v>
+        <v>790.99999999999943</v>
       </c>
       <c r="P14" s="1">
-        <v>9430951.7147999946</v>
+        <v>322435.87408999965</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
-        <v>9192</v>
+        <v>20037.999999999996</v>
       </c>
       <c r="C15" s="1">
-        <v>21205.026720000002</v>
+        <v>25152.816680000011</v>
       </c>
       <c r="D15" s="1">
-        <v>59994</v>
+        <v>72911.599999999991</v>
       </c>
       <c r="E15" s="1">
-        <v>1042.9999999999993</v>
+        <v>2549.9999999999977</v>
       </c>
       <c r="F15" s="1">
-        <v>1194600.3487199994</v>
+        <v>4713511.9352799999</v>
       </c>
       <c r="G15" s="1">
-        <v>24.81</v>
+        <v>29.9</v>
       </c>
       <c r="H15" s="1">
-        <v>140.99999999999912</v>
+        <v>195.99999999999872</v>
       </c>
       <c r="I15" s="1">
-        <v>92.999999999999559</v>
+        <v>248.99999999999895</v>
       </c>
       <c r="J15" s="1">
-        <v>563.59999999999923</v>
+        <v>1123.1999999999985</v>
       </c>
       <c r="K15" s="1">
-        <v>35895.999999999993</v>
+        <v>1264806.9999999993</v>
       </c>
       <c r="L15" s="1">
-        <v>57654.419999999991</v>
+        <v>104307.92999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>8271274.1760000018</v>
+        <v>2214641.3434399972</v>
       </c>
       <c r="N15" s="1">
-        <v>36.999999999999908</v>
+        <v>34.999999999999915</v>
       </c>
       <c r="O15" s="1">
-        <v>3089.9999999999995</v>
+        <v>6308.9999999999991</v>
       </c>
       <c r="P15" s="1">
-        <v>7029925.2345599988</v>
+        <v>26988496.705479994</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8680.9999999999982</v>
+      </c>
+      <c r="C16" s="1">
+        <v>19397.3076</v>
+      </c>
+      <c r="D16" s="1">
+        <v>32935.899999999994</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1673.9999999999982</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1330729.4930399999</v>
+      </c>
+      <c r="G16" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>158.99999999999895</v>
+      </c>
+      <c r="I16" s="1">
+        <v>184.99999999999918</v>
+      </c>
+      <c r="J16" s="1">
+        <v>386.19999999999953</v>
+      </c>
+      <c r="K16" s="1">
+        <v>810919.99999999977</v>
+      </c>
+      <c r="L16" s="1">
+        <v>182696</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5519372.8535999991</v>
+      </c>
+      <c r="N16" s="1">
+        <v>38.999999999999908</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2499.9999999999995</v>
+      </c>
+      <c r="P16" s="1">
+        <v>3749387.5015199976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1278.9999999999998</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2585.4999999999986</v>
+      </c>
+      <c r="D17" s="1">
+        <v>281.99999999999972</v>
+      </c>
+      <c r="E17" s="1">
+        <v>415783.74875999975</v>
+      </c>
+      <c r="F17" s="1">
+        <v>46.954686477696221</v>
+      </c>
+      <c r="G17" s="1">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="H17" s="1">
+        <v>16.999999999999883</v>
+      </c>
+      <c r="I17" s="1">
+        <v>15.999999999999924</v>
+      </c>
+      <c r="J17" s="1">
+        <v>410.99999999999943</v>
+      </c>
+      <c r="K17" s="1">
+        <v>89147.199999999983</v>
+      </c>
+      <c r="L17" s="1">
+        <v>7671.9999999999945</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2684633.8327999976</v>
+      </c>
+      <c r="N17" s="1">
+        <v>18.999999999999947</v>
+      </c>
+      <c r="O17" s="1">
+        <v>376.99999999999977</v>
+      </c>
+      <c r="P17" s="1">
+        <v>366113.43699999945</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2086.9999999999986</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6433.2999999999956</v>
+      </c>
+      <c r="D18" s="1">
+        <v>210.99999999999983</v>
+      </c>
+      <c r="E18" s="1">
+        <v>267414.72803999996</v>
+      </c>
+      <c r="F18" s="1">
+        <v>14.994657846809471</v>
+      </c>
+      <c r="G18" s="1">
+        <v>32.08</v>
+      </c>
+      <c r="H18" s="1">
+        <v>84.999999999999403</v>
+      </c>
+      <c r="I18" s="1">
+        <v>54.999999999999737</v>
+      </c>
+      <c r="J18" s="1">
+        <v>537.09999999999934</v>
+      </c>
+      <c r="K18" s="1">
+        <v>297093.99999999983</v>
+      </c>
+      <c r="L18" s="1">
+        <v>16965.999999999989</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2513116.4799999981</v>
+      </c>
+      <c r="N18" s="1">
+        <v>39.999999999999886</v>
+      </c>
+      <c r="O18" s="1">
+        <v>810.99999999999943</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1568477.3210399991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2688.9999999999995</v>
+      </c>
+      <c r="C19" s="1">
+        <v>9015.3999999999905</v>
+      </c>
+      <c r="D19" s="1">
+        <v>204.99999999999977</v>
+      </c>
+      <c r="E19" s="1">
+        <v>229243.99999999988</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10.305880237367379</v>
+      </c>
+      <c r="G19" s="1">
+        <v>21.93</v>
+      </c>
+      <c r="H19" s="1">
+        <v>70.999999999999531</v>
+      </c>
+      <c r="I19" s="1">
+        <v>30.999999999999837</v>
+      </c>
+      <c r="J19" s="1">
+        <v>98.599999999999739</v>
+      </c>
+      <c r="K19" s="1">
+        <v>279415.99999999988</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4925.9999999999973</v>
+      </c>
+      <c r="M19" s="1">
+        <v>3402333.9999999972</v>
+      </c>
+      <c r="N19" s="1">
+        <v>20.999999999999943</v>
+      </c>
+      <c r="O19" s="1">
+        <v>978.9999999999992</v>
+      </c>
+      <c r="P19" s="1">
+        <v>602011.49999999895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4696.9999999999991</v>
+      </c>
+      <c r="C20" s="1">
+        <v>27639.699999999986</v>
+      </c>
+      <c r="D20" s="1">
+        <v>219.99999999999972</v>
+      </c>
+      <c r="E20" s="1">
+        <v>794230.03655999957</v>
+      </c>
+      <c r="F20" s="1">
+        <v>22.599949821016981</v>
+      </c>
+      <c r="G20" s="1">
+        <v>22.85</v>
+      </c>
+      <c r="H20" s="1">
+        <v>125.9999999999992</v>
+      </c>
+      <c r="I20" s="1">
+        <v>95.999999999999559</v>
+      </c>
+      <c r="J20" s="1">
+        <v>536.7999999999995</v>
+      </c>
+      <c r="K20" s="1">
+        <v>378688.00000000006</v>
+      </c>
+      <c r="L20" s="1">
+        <v>9071.9999999999927</v>
+      </c>
+      <c r="M20" s="1">
+        <v>8906174.1647999976</v>
+      </c>
+      <c r="N20" s="1">
+        <v>18.999999999999954</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1432.9999999999993</v>
+      </c>
+      <c r="P20" s="1">
+        <v>3135363.9667199976</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5471</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9993.7999999999938</v>
+      </c>
+      <c r="D21" s="1">
+        <v>349.99999999999949</v>
+      </c>
+      <c r="E21" s="1">
+        <v>135007.86686999991</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4.2340797487925723</v>
+      </c>
+      <c r="G21" s="1">
+        <v>22.88</v>
+      </c>
+      <c r="H21" s="1">
+        <v>126.99999999999916</v>
+      </c>
+      <c r="I21" s="1">
+        <v>24.999999999999879</v>
+      </c>
+      <c r="J21" s="1">
+        <v>357.59999999999962</v>
+      </c>
+      <c r="K21" s="1">
+        <v>532404</v>
+      </c>
+      <c r="L21" s="1">
+        <v>27023.969999999979</v>
+      </c>
+      <c r="M21" s="1">
+        <v>9174521.0092999972</v>
+      </c>
+      <c r="N21" s="1">
+        <v>29.999999999999922</v>
+      </c>
+      <c r="O21" s="1">
+        <v>2096.9999999999995</v>
+      </c>
+      <c r="P21" s="1">
+        <v>17566777.100189991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>5</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B22" s="1">
+        <v>2819.9999999999991</v>
+      </c>
+      <c r="C22" s="1">
+        <v>17545.93204</v>
+      </c>
+      <c r="D22" s="1">
+        <v>16399.19999999999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>346.9999999999996</v>
+      </c>
+      <c r="F22" s="1">
+        <v>573514.04293999996</v>
+      </c>
+      <c r="G22" s="1">
+        <v>28</v>
+      </c>
+      <c r="H22" s="1">
+        <v>64.999999999999574</v>
+      </c>
+      <c r="I22" s="1">
+        <v>59.999999999999716</v>
+      </c>
+      <c r="J22" s="1">
+        <v>382.49999999999949</v>
+      </c>
+      <c r="K22" s="1">
+        <v>39639.999999999935</v>
+      </c>
+      <c r="L22" s="1">
+        <v>9314.3999999999924</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3234408.7671999987</v>
+      </c>
+      <c r="N22" s="1">
+        <v>17.99999999999995</v>
+      </c>
+      <c r="O22" s="1">
+        <v>744.99999999999955</v>
+      </c>
+      <c r="P22" s="1">
+        <v>828015.21829999797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>21239.000000000004</v>
+      </c>
+      <c r="C23" s="1">
+        <v>23604.910929999998</v>
+      </c>
+      <c r="D23" s="1">
+        <v>64664.399999999987</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2076.9999999999995</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4676977.1911800001</v>
+      </c>
+      <c r="G23" s="1">
+        <v>30.2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>300.99999999999807</v>
+      </c>
+      <c r="I23" s="1">
+        <v>303.99999999999869</v>
+      </c>
+      <c r="J23" s="1">
+        <v>783.79999999999882</v>
+      </c>
+      <c r="K23" s="1">
+        <v>202571.00000000003</v>
+      </c>
+      <c r="L23" s="1">
+        <v>87368.909999999974</v>
+      </c>
+      <c r="M23" s="1">
+        <v>8408723.8795999978</v>
+      </c>
+      <c r="N23" s="1">
+        <v>34.999999999999901</v>
+      </c>
+      <c r="O23" s="1">
+        <v>4502</v>
+      </c>
+      <c r="P23" s="1">
+        <v>19397519.885310002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>15028.999999999996</v>
+      </c>
+      <c r="C24" s="1">
+        <v>25869.387780000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>17235.499999999989</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1123.9999999999986</v>
+      </c>
+      <c r="F24" s="1">
+        <v>866008.93850999954</v>
+      </c>
+      <c r="G24" s="1">
+        <v>23.8</v>
+      </c>
+      <c r="H24" s="1">
+        <v>124.99999999999919</v>
+      </c>
+      <c r="I24" s="1">
+        <v>194.99999999999915</v>
+      </c>
+      <c r="J24" s="1">
+        <v>235.39999999999975</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2168.999999999995</v>
+      </c>
+      <c r="L24" s="1">
+        <v>22439.059999999987</v>
+      </c>
+      <c r="M24" s="1">
+        <v>259751.15039999882</v>
+      </c>
+      <c r="N24" s="1">
+        <v>11.999999999999948</v>
+      </c>
+      <c r="O24" s="1">
+        <v>3210.9999999999995</v>
+      </c>
+      <c r="P24" s="1">
+        <v>9430951.7147999946</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>9192</v>
+      </c>
+      <c r="C25" s="1">
+        <v>21205.026720000002</v>
+      </c>
+      <c r="D25" s="1">
+        <v>59994</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1042.9999999999993</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1194600.3487199994</v>
+      </c>
+      <c r="G25" s="1">
+        <v>24.81</v>
+      </c>
+      <c r="H25" s="1">
+        <v>140.99999999999912</v>
+      </c>
+      <c r="I25" s="1">
+        <v>92.999999999999559</v>
+      </c>
+      <c r="J25" s="1">
+        <v>563.59999999999923</v>
+      </c>
+      <c r="K25" s="1">
+        <v>35895.999999999993</v>
+      </c>
+      <c r="L25" s="1">
+        <v>57654.419999999991</v>
+      </c>
+      <c r="M25" s="1">
+        <v>8271274.1760000018</v>
+      </c>
+      <c r="N25" s="1">
+        <v>36.999999999999908</v>
+      </c>
+      <c r="O25" s="1">
+        <v>3089.9999999999995</v>
+      </c>
+      <c r="P25" s="1">
+        <v>7029925.2345599988</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
         <v>11442</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C26" s="1">
         <v>18218.315640000001</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D26" s="1">
         <v>69421.599999999991</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E26" s="1">
         <v>79.999999999999517</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F26" s="1">
         <v>3389505.0556999999</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G26" s="1">
         <v>21.85</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H26" s="1">
         <v>164.99999999999895</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I26" s="1">
         <v>248.99999999999898</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J26" s="1">
         <v>369.09999999999923</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K26" s="1">
         <v>18256.999999999818</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L26" s="1">
         <v>57789.999999999949</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M26" s="1">
         <v>521260.11459999764</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N26" s="1">
         <v>5.9999999999999627</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O26" s="1">
         <v>3403</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P26" s="1">
         <v>5939939.1027600002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2547.9999999999977</v>
+      </c>
+      <c r="C27" s="1">
+        <v>18638.87111</v>
+      </c>
+      <c r="D27" s="1">
+        <v>10254.999999999993</v>
+      </c>
+      <c r="E27" s="1">
+        <v>511.99999999999943</v>
+      </c>
+      <c r="F27" s="1">
+        <v>451466.86220999988</v>
+      </c>
+      <c r="G27" s="1">
+        <v>25</v>
+      </c>
+      <c r="H27" s="1">
+        <v>83.999999999999432</v>
+      </c>
+      <c r="I27" s="1">
+        <v>32.999999999999851</v>
+      </c>
+      <c r="J27" s="1">
+        <v>265.79999999999973</v>
+      </c>
+      <c r="K27" s="1">
+        <v>14455.999999999975</v>
+      </c>
+      <c r="L27" s="1">
+        <v>35901.049999999996</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1395103.6922999984</v>
+      </c>
+      <c r="N27" s="1">
+        <v>25.999999999999936</v>
+      </c>
+      <c r="O27" s="1">
+        <v>919.99999999999955</v>
+      </c>
+      <c r="P27" s="1">
+        <v>932526.86903999816</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2330.9999999999977</v>
+      </c>
+      <c r="C28" s="1">
+        <v>22823.19152</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6715.4999999999927</v>
+      </c>
+      <c r="E28" s="1">
+        <v>244.99999999999955</v>
+      </c>
+      <c r="F28" s="1">
+        <v>235832.72977999973</v>
+      </c>
+      <c r="G28" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>76.99999999999946</v>
+      </c>
+      <c r="I28" s="1">
+        <v>7.9999999999999538</v>
+      </c>
+      <c r="J28" s="1">
+        <v>81.299999999999784</v>
+      </c>
+      <c r="K28" s="1">
+        <v>86576.999999999913</v>
+      </c>
+      <c r="L28" s="1">
+        <v>15944.749999999989</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1820784.7858999991</v>
+      </c>
+      <c r="N28" s="1">
+        <v>15.99999999999995</v>
+      </c>
+      <c r="O28" s="1">
+        <v>729.99999999999955</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1460779.4436599989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>6011.9999999999982</v>
+      </c>
+      <c r="C29" s="1">
+        <v>18611.958289999999</v>
+      </c>
+      <c r="D29" s="1">
+        <v>20455.999999999993</v>
+      </c>
+      <c r="E29" s="1">
+        <v>645.99999999999943</v>
+      </c>
+      <c r="F29" s="1">
+        <v>899043.39099999995</v>
+      </c>
+      <c r="G29" s="1">
+        <v>37.19</v>
+      </c>
+      <c r="H29" s="1">
+        <v>147.99999999999906</v>
+      </c>
+      <c r="I29" s="1">
+        <v>40.999999999999794</v>
+      </c>
+      <c r="J29" s="1">
+        <v>618.49999999999932</v>
+      </c>
+      <c r="K29" s="1">
+        <v>27023.999999999942</v>
+      </c>
+      <c r="L29" s="1">
+        <v>26455.999999999993</v>
+      </c>
+      <c r="M29" s="1">
+        <v>2652645.5177999986</v>
+      </c>
+      <c r="N29" s="1">
+        <v>18.99999999999995</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1149.9999999999995</v>
+      </c>
+      <c r="P29" s="1">
+        <v>6067714.9468499981</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3520.9999999999991</v>
+      </c>
+      <c r="C30" s="1">
+        <v>19147.145039999999</v>
+      </c>
+      <c r="D30" s="1">
+        <v>11267.999999999993</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1097.9999999999991</v>
+      </c>
+      <c r="F30" s="1">
+        <v>584236.91447999945</v>
+      </c>
+      <c r="G30" s="1">
+        <v>51.2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>122.99999999999919</v>
+      </c>
+      <c r="I30" s="1">
+        <v>36.999999999999829</v>
+      </c>
+      <c r="J30" s="1">
+        <v>408.3999999999993</v>
+      </c>
+      <c r="K30" s="1">
+        <v>38837.999999999964</v>
+      </c>
+      <c r="L30" s="1">
+        <v>26779.999999999989</v>
+      </c>
+      <c r="M30" s="1">
+        <v>2725337.6207999978</v>
+      </c>
+      <c r="N30" s="1">
+        <v>16.999999999999954</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1043.9999999999995</v>
+      </c>
+      <c r="P30" s="1">
+        <v>556306.09055999748</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4769.9999999999982</v>
+      </c>
+      <c r="C31" s="1">
+        <v>16996.987359999999</v>
+      </c>
+      <c r="D31" s="1">
+        <v>11655.999999999998</v>
+      </c>
+      <c r="E31" s="1">
+        <v>633.99999999999977</v>
+      </c>
+      <c r="F31" s="1">
+        <v>312410.58597000001</v>
+      </c>
+      <c r="G31" s="1">
+        <v>29.58</v>
+      </c>
+      <c r="H31" s="1">
+        <v>71.999999999999559</v>
+      </c>
+      <c r="I31" s="1">
+        <v>113.99999999999952</v>
+      </c>
+      <c r="J31" s="1">
+        <v>478.49999999999966</v>
+      </c>
+      <c r="K31" s="1">
+        <v>116217.99999999997</v>
+      </c>
+      <c r="L31" s="1">
+        <v>29804.749999999989</v>
+      </c>
+      <c r="M31" s="1">
+        <v>5228156.3358999994</v>
+      </c>
+      <c r="N31" s="1">
+        <v>38.999999999999915</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1186.9999999999998</v>
+      </c>
+      <c r="P31" s="1">
+        <v>2895385.0253199995</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/clustering/for paper/input c2c.xlsx
+++ b/migforecasting/clustering/for paper/input c2c.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,16 +1231,16 @@
         <v>1278.9999999999998</v>
       </c>
       <c r="C17" s="1">
+        <v>19406.97712</v>
+      </c>
+      <c r="D17" s="1">
         <v>2585.4999999999986</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>281.99999999999972</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>415783.74875999975</v>
-      </c>
-      <c r="F17" s="1">
-        <v>46.954686477696221</v>
       </c>
       <c r="G17" s="1">
         <v>37.299999999999997</v>
@@ -1281,16 +1281,16 @@
         <v>2086.9999999999986</v>
       </c>
       <c r="C18" s="1">
+        <v>17100.190320000002</v>
+      </c>
+      <c r="D18" s="1">
         <v>6433.2999999999956</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>210.99999999999983</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>267414.72803999996</v>
-      </c>
-      <c r="F18" s="1">
-        <v>14.994657846809471</v>
       </c>
       <c r="G18" s="1">
         <v>32.08</v>
@@ -1331,16 +1331,16 @@
         <v>2688.9999999999995</v>
       </c>
       <c r="C19" s="1">
+        <v>18039.2</v>
+      </c>
+      <c r="D19" s="1">
         <v>9015.3999999999905</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>204.99999999999977</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>229243.99999999988</v>
-      </c>
-      <c r="F19" s="1">
-        <v>10.305880237367379</v>
       </c>
       <c r="G19" s="1">
         <v>21.93</v>
@@ -1381,16 +1381,16 @@
         <v>4696.9999999999991</v>
       </c>
       <c r="C20" s="1">
+        <v>19598.053680000001</v>
+      </c>
+      <c r="D20" s="1">
         <v>27639.699999999986</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>219.99999999999972</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>794230.03655999957</v>
-      </c>
-      <c r="F20" s="1">
-        <v>22.599949821016981</v>
       </c>
       <c r="G20" s="1">
         <v>22.85</v>
@@ -1431,16 +1431,16 @@
         <v>5471</v>
       </c>
       <c r="C21" s="1">
+        <v>24531.17148999999</v>
+      </c>
+      <c r="D21" s="1">
         <v>9993.7999999999938</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>349.99999999999949</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>135007.86686999991</v>
-      </c>
-      <c r="F21" s="1">
-        <v>4.2340797487925723</v>
       </c>
       <c r="G21" s="1">
         <v>22.88</v>
